--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-20.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-20.xlsx
@@ -45,6 +45,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>当前股价位置属于趋势的周期</t>
     </r>
     <r>
@@ -75,6 +81,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>价格行为</t>
     </r>
     <r>
@@ -131,6 +143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位和压力位是否同步升高</t>
     </r>
     <r>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否有网球行为出现</t>
     </r>
     <r>
@@ -179,6 +203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>上涨天数是否大于下跌天数</t>
     </r>
     <r>
@@ -203,6 +233,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不同收盘表现时交易量情况</t>
     </r>
     <r>
@@ -227,6 +263,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>成交量收缩情况</t>
     </r>
     <r>
@@ -284,6 +326,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>时间周期</t>
     </r>
     <r>
@@ -326,6 +374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>收缩数量</t>
     </r>
     <r>
@@ -2053,12 +2107,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2085,9 +2139,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2100,16 +2153,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2119,6 +2171,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2135,51 +2195,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2206,6 +2221,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2213,9 +2236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2229,14 +2251,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2246,12 +2300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3377FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,7 +2329,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2293,19 +2383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,7 +2419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,19 +2449,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2353,25 +2485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,85 +2509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,6 +2569,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2536,29 +2593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2580,26 +2625,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2618,163 +2646,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2789,67 +2837,52 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2904,7 +2937,15 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3243,15 +3284,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="V123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD135" sqref="AB135:AD135"/>
+      <selection pane="bottomRight" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3271,7 +3312,7 @@
     <col min="29" max="30" width="12.6470588235294" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:41">
+    <row r="1" spans="1:41">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3299,50 +3340,50 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="21" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="23" t="s">
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AO1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" hidden="1" spans="1:41">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3362,54 +3403,54 @@
       <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="19" t="s">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AM2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="24"/>
-    </row>
-    <row r="3" ht="41" spans="1:41">
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="19"/>
+    </row>
+    <row r="3" ht="41" hidden="1" spans="1:41">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3421,10 +3462,10 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="9" t="s">
         <v>26</v>
       </c>
@@ -3440,28 +3481,28 @@
       <c r="T3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AC3" s="11" t="s">
@@ -3470,27 +3511,27 @@
       <c r="AD3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="24"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="19"/>
+    </row>
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -3513,7 +3554,7 @@
         <v>160.097</v>
       </c>
     </row>
-    <row r="5" ht="41" spans="1:7">
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -3536,7 +3577,7 @@
         <v>56.107</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
@@ -3559,7 +3600,7 @@
         <v>8.658</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:7">
+    <row r="7" hidden="1" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
@@ -3582,7 +3623,7 @@
         <v>9.924</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:7">
+    <row r="8" hidden="1" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -3605,7 +3646,7 @@
         <v>5.177</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:7">
+    <row r="9" hidden="1" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
@@ -3628,7 +3669,7 @@
         <v>3.355</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:7">
+    <row r="10" hidden="1" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>63</v>
       </c>
@@ -3651,7 +3692,7 @@
         <v>24.366</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" hidden="1" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>66</v>
       </c>
@@ -3674,7 +3715,7 @@
         <v>429.288</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -3697,7 +3738,7 @@
         <v>22.699</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" hidden="1" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>72</v>
       </c>
@@ -3720,7 +3761,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="14" ht="55" spans="1:7">
+    <row r="14" hidden="1" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>75</v>
       </c>
@@ -3743,7 +3784,7 @@
         <v>5.314</v>
       </c>
     </row>
-    <row r="15" ht="41" spans="1:7">
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>78</v>
       </c>
@@ -3766,7 +3807,7 @@
         <v>14.218</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:7">
+    <row r="16" hidden="1" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>81</v>
       </c>
@@ -3789,7 +3830,7 @@
         <v>3.909</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" hidden="1" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>84</v>
       </c>
@@ -3812,7 +3853,7 @@
         <v>66.249</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
@@ -3835,7 +3876,7 @@
         <v>44.679</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" hidden="1" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
@@ -3858,7 +3899,7 @@
         <v>6.908</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
@@ -3881,7 +3922,7 @@
         <v>10.224</v>
       </c>
     </row>
-    <row r="21" ht="41" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>96</v>
       </c>
@@ -3904,7 +3945,7 @@
         <v>9.096</v>
       </c>
     </row>
-    <row r="22" ht="28" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>99</v>
       </c>
@@ -3927,7 +3968,7 @@
         <v>14.679</v>
       </c>
     </row>
-    <row r="23" ht="41" spans="1:7">
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -3950,7 +3991,7 @@
         <v>37.958</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -3973,7 +4014,7 @@
         <v>48.46</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>105</v>
       </c>
@@ -3996,7 +4037,7 @@
         <v>89.319</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" hidden="1" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>108</v>
       </c>
@@ -4019,7 +4060,7 @@
         <v>7.732</v>
       </c>
     </row>
-    <row r="27" ht="41" spans="1:7">
+    <row r="27" hidden="1" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>111</v>
       </c>
@@ -4042,7 +4083,7 @@
         <v>16.319</v>
       </c>
     </row>
-    <row r="28" ht="41" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>113</v>
       </c>
@@ -4065,7 +4106,7 @@
         <v>5.245</v>
       </c>
     </row>
-    <row r="29" ht="41" spans="1:7">
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" s="7" t="s">
         <v>116</v>
       </c>
@@ -4088,7 +4129,7 @@
         <v>3.882</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="7" t="s">
         <v>119</v>
       </c>
@@ -4111,7 +4152,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="31" ht="41" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -4134,7 +4175,7 @@
         <v>28.202</v>
       </c>
     </row>
-    <row r="32" ht="41" spans="1:7">
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
@@ -4157,7 +4198,7 @@
         <v>4.565</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="7" t="s">
         <v>127</v>
       </c>
@@ -4180,7 +4221,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="34" ht="28" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="7" t="s">
         <v>130</v>
       </c>
@@ -4203,7 +4244,7 @@
         <v>75.337</v>
       </c>
     </row>
-    <row r="35" ht="28" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="7" t="s">
         <v>133</v>
       </c>
@@ -4226,7 +4267,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="36" ht="55" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="7" t="s">
         <v>135</v>
       </c>
@@ -4249,7 +4290,7 @@
         <v>117.913</v>
       </c>
     </row>
-    <row r="37" ht="41" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" s="7" t="s">
         <v>138</v>
       </c>
@@ -4272,7 +4313,7 @@
         <v>9.834</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" hidden="1" spans="1:7">
       <c r="A38" s="7" t="s">
         <v>141</v>
       </c>
@@ -4295,7 +4336,7 @@
         <v>32.434</v>
       </c>
     </row>
-    <row r="39" ht="28" spans="1:7">
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" s="7" t="s">
         <v>144</v>
       </c>
@@ -4318,7 +4359,7 @@
         <v>16.662</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" s="7" t="s">
         <v>147</v>
       </c>
@@ -4341,7 +4382,7 @@
         <v>2.065</v>
       </c>
     </row>
-    <row r="41" ht="55" spans="1:7">
+    <row r="41" hidden="1" spans="1:7">
       <c r="A41" s="7" t="s">
         <v>149</v>
       </c>
@@ -4364,7 +4405,7 @@
         <v>13.614</v>
       </c>
     </row>
-    <row r="42" ht="28" spans="1:7">
+    <row r="42" hidden="1" spans="1:7">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -4387,7 +4428,7 @@
         <v>22.191</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" hidden="1" spans="1:7">
       <c r="A43" s="7" t="s">
         <v>155</v>
       </c>
@@ -4410,7 +4451,7 @@
         <v>19.946</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="7" t="s">
         <v>158</v>
       </c>
@@ -4433,7 +4474,7 @@
         <v>3.426</v>
       </c>
     </row>
-    <row r="45" ht="28" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="7" t="s">
         <v>161</v>
       </c>
@@ -4456,7 +4497,7 @@
         <v>17.125</v>
       </c>
     </row>
-    <row r="46" ht="28" spans="1:7">
+    <row r="46" hidden="1" spans="1:7">
       <c r="A46" s="7" t="s">
         <v>164</v>
       </c>
@@ -4479,7 +4520,7 @@
         <v>6.554</v>
       </c>
     </row>
-    <row r="47" ht="28" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="7" t="s">
         <v>167</v>
       </c>
@@ -4502,7 +4543,7 @@
         <v>40.557</v>
       </c>
     </row>
-    <row r="48" ht="41" spans="1:7">
+    <row r="48" hidden="1" spans="1:7">
       <c r="A48" s="7" t="s">
         <v>169</v>
       </c>
@@ -4525,7 +4566,7 @@
         <v>7.534</v>
       </c>
     </row>
-    <row r="49" ht="28" spans="1:7">
+    <row r="49" hidden="1" spans="1:7">
       <c r="A49" s="7" t="s">
         <v>172</v>
       </c>
@@ -4548,7 +4589,7 @@
         <v>56.13</v>
       </c>
     </row>
-    <row r="50" ht="55" spans="1:7">
+    <row r="50" hidden="1" spans="1:7">
       <c r="A50" s="7" t="s">
         <v>175</v>
       </c>
@@ -4571,7 +4612,7 @@
         <v>6.841</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" hidden="1" spans="1:7">
       <c r="A51" s="7" t="s">
         <v>177</v>
       </c>
@@ -4594,7 +4635,7 @@
         <v>41.399</v>
       </c>
     </row>
-    <row r="52" ht="28" spans="1:7">
+    <row r="52" hidden="1" spans="1:7">
       <c r="A52" s="7" t="s">
         <v>180</v>
       </c>
@@ -4617,7 +4658,7 @@
         <v>91.833</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:7">
+    <row r="53" hidden="1" spans="1:7">
       <c r="A53" s="7" t="s">
         <v>183</v>
       </c>
@@ -4640,7 +4681,7 @@
         <v>3.547</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" hidden="1" spans="1:7">
       <c r="A54" s="7" t="s">
         <v>186</v>
       </c>
@@ -4663,7 +4704,7 @@
         <v>94.216</v>
       </c>
     </row>
-    <row r="55" ht="28" spans="1:7">
+    <row r="55" hidden="1" spans="1:7">
       <c r="A55" s="7" t="s">
         <v>189</v>
       </c>
@@ -4686,7 +4727,7 @@
         <v>4.789</v>
       </c>
     </row>
-    <row r="56" ht="28" spans="1:7">
+    <row r="56" hidden="1" spans="1:7">
       <c r="A56" s="7" t="s">
         <v>192</v>
       </c>
@@ -4709,7 +4750,7 @@
         <v>40.837</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" hidden="1" spans="1:7">
       <c r="A57" s="7" t="s">
         <v>194</v>
       </c>
@@ -4732,7 +4773,7 @@
         <v>188.562</v>
       </c>
     </row>
-    <row r="58" ht="41" spans="1:7">
+    <row r="58" hidden="1" spans="1:7">
       <c r="A58" s="7" t="s">
         <v>197</v>
       </c>
@@ -4755,7 +4796,7 @@
         <v>4.205</v>
       </c>
     </row>
-    <row r="59" ht="41" spans="1:7">
+    <row r="59" hidden="1" spans="1:7">
       <c r="A59" s="7" t="s">
         <v>200</v>
       </c>
@@ -4778,7 +4819,7 @@
         <v>15.886</v>
       </c>
     </row>
-    <row r="60" ht="28" spans="1:7">
+    <row r="60" hidden="1" spans="1:7">
       <c r="A60" s="7" t="s">
         <v>202</v>
       </c>
@@ -4801,7 +4842,7 @@
         <v>44.197</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" hidden="1" spans="1:7">
       <c r="A61" s="7" t="s">
         <v>204</v>
       </c>
@@ -4824,7 +4865,7 @@
         <v>25.711</v>
       </c>
     </row>
-    <row r="62" ht="55" spans="1:7">
+    <row r="62" hidden="1" spans="1:7">
       <c r="A62" s="7" t="s">
         <v>207</v>
       </c>
@@ -4847,7 +4888,7 @@
         <v>5.109</v>
       </c>
     </row>
-    <row r="63" ht="41" spans="1:7">
+    <row r="63" hidden="1" spans="1:7">
       <c r="A63" s="7" t="s">
         <v>210</v>
       </c>
@@ -4870,7 +4911,7 @@
         <v>9.185</v>
       </c>
     </row>
-    <row r="64" ht="41" spans="1:7">
+    <row r="64" hidden="1" spans="1:7">
       <c r="A64" s="7" t="s">
         <v>212</v>
       </c>
@@ -4893,7 +4934,7 @@
         <v>4.175</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" hidden="1" spans="1:7">
       <c r="A65" s="7" t="s">
         <v>215</v>
       </c>
@@ -4916,7 +4957,7 @@
         <v>8.127</v>
       </c>
     </row>
-    <row r="66" ht="28" spans="1:7">
+    <row r="66" hidden="1" spans="1:7">
       <c r="A66" s="7" t="s">
         <v>217</v>
       </c>
@@ -4939,7 +4980,7 @@
         <v>147.296</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" hidden="1" spans="1:7">
       <c r="A67" s="7" t="s">
         <v>219</v>
       </c>
@@ -4962,7 +5003,7 @@
         <v>8.917</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" hidden="1" spans="1:7">
       <c r="A68" s="7" t="s">
         <v>221</v>
       </c>
@@ -4985,7 +5026,7 @@
         <v>6.265</v>
       </c>
     </row>
-    <row r="69" ht="28" spans="1:7">
+    <row r="69" hidden="1" spans="1:7">
       <c r="A69" s="7" t="s">
         <v>224</v>
       </c>
@@ -5008,7 +5049,7 @@
         <v>29.878</v>
       </c>
     </row>
-    <row r="70" ht="28" spans="1:7">
+    <row r="70" hidden="1" spans="1:7">
       <c r="A70" s="7" t="s">
         <v>226</v>
       </c>
@@ -5031,7 +5072,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" hidden="1" spans="1:7">
       <c r="A71" s="7" t="s">
         <v>229</v>
       </c>
@@ -5054,7 +5095,7 @@
         <v>27.988</v>
       </c>
     </row>
-    <row r="72" ht="28" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="7" t="s">
         <v>231</v>
       </c>
@@ -5077,7 +5118,7 @@
         <v>15.071</v>
       </c>
     </row>
-    <row r="73" ht="41" spans="1:7">
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="7" t="s">
         <v>233</v>
       </c>
@@ -5100,7 +5141,7 @@
         <v>5.309</v>
       </c>
     </row>
-    <row r="74" ht="28" spans="1:7">
+    <row r="74" hidden="1" spans="1:7">
       <c r="A74" s="7" t="s">
         <v>235</v>
       </c>
@@ -5123,7 +5164,7 @@
         <v>11.664</v>
       </c>
     </row>
-    <row r="75" ht="28" spans="1:7">
+    <row r="75" hidden="1" spans="1:7">
       <c r="A75" s="7" t="s">
         <v>237</v>
       </c>
@@ -5146,7 +5187,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="76" ht="28" spans="1:7">
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="7" t="s">
         <v>239</v>
       </c>
@@ -5169,7 +5210,7 @@
         <v>6.207</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:7">
+    <row r="77" hidden="1" spans="1:7">
       <c r="A77" s="7" t="s">
         <v>242</v>
       </c>
@@ -5192,7 +5233,7 @@
         <v>8.132</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" hidden="1" spans="1:7">
       <c r="A78" s="7" t="s">
         <v>245</v>
       </c>
@@ -5215,7 +5256,7 @@
         <v>63.859</v>
       </c>
     </row>
-    <row r="79" ht="28" spans="1:7">
+    <row r="79" hidden="1" spans="1:7">
       <c r="A79" s="7" t="s">
         <v>247</v>
       </c>
@@ -5238,7 +5279,7 @@
         <v>4.649</v>
       </c>
     </row>
-    <row r="80" ht="28" spans="1:7">
+    <row r="80" hidden="1" spans="1:7">
       <c r="A80" s="7" t="s">
         <v>250</v>
       </c>
@@ -5261,7 +5302,7 @@
         <v>41.831</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" hidden="1" spans="1:7">
       <c r="A81" s="7" t="s">
         <v>253</v>
       </c>
@@ -5288,7 +5329,7 @@
       <c r="A82" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="20" t="s">
         <v>257</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -5307,7 +5348,7 @@
         <v>62.575</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" s="7" t="s">
         <v>258</v>
       </c>
@@ -5330,7 +5371,7 @@
         <v>3.935</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" hidden="1" spans="1:7">
       <c r="A84" s="7" t="s">
         <v>260</v>
       </c>
@@ -5353,7 +5394,7 @@
         <v>42.474</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" hidden="1" spans="1:7">
       <c r="A85" s="7" t="s">
         <v>263</v>
       </c>
@@ -5376,7 +5417,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="7" t="s">
         <v>265</v>
       </c>
@@ -5399,7 +5440,7 @@
         <v>14.845</v>
       </c>
     </row>
-    <row r="87" ht="28" spans="1:7">
+    <row r="87" hidden="1" spans="1:7">
       <c r="A87" s="7" t="s">
         <v>268</v>
       </c>
@@ -5422,7 +5463,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="88" ht="28" spans="1:7">
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="7" t="s">
         <v>270</v>
       </c>
@@ -5445,7 +5486,7 @@
         <v>18.499</v>
       </c>
     </row>
-    <row r="89" ht="28" spans="1:7">
+    <row r="89" hidden="1" spans="1:7">
       <c r="A89" s="7" t="s">
         <v>272</v>
       </c>
@@ -5468,7 +5509,7 @@
         <v>6.698</v>
       </c>
     </row>
-    <row r="90" ht="28" spans="1:7">
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="7" t="s">
         <v>274</v>
       </c>
@@ -5491,7 +5532,7 @@
         <v>2.172</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" hidden="1" spans="1:7">
       <c r="A91" s="7" t="s">
         <v>277</v>
       </c>
@@ -5514,7 +5555,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="92" ht="28" spans="1:7">
+    <row r="92" hidden="1" spans="1:7">
       <c r="A92" s="7" t="s">
         <v>279</v>
       </c>
@@ -5537,7 +5578,7 @@
         <v>2.457</v>
       </c>
     </row>
-    <row r="93" ht="28" spans="1:7">
+    <row r="93" hidden="1" spans="1:7">
       <c r="A93" s="7" t="s">
         <v>282</v>
       </c>
@@ -5560,7 +5601,7 @@
         <v>10.007</v>
       </c>
     </row>
-    <row r="94" ht="28" spans="1:7">
+    <row r="94" hidden="1" spans="1:7">
       <c r="A94" s="7" t="s">
         <v>285</v>
       </c>
@@ -5583,7 +5624,7 @@
         <v>19.668</v>
       </c>
     </row>
-    <row r="95" ht="41" spans="1:7">
+    <row r="95" hidden="1" spans="1:7">
       <c r="A95" s="7" t="s">
         <v>288</v>
       </c>
@@ -5606,7 +5647,7 @@
         <v>13.458</v>
       </c>
     </row>
-    <row r="96" ht="41" spans="1:7">
+    <row r="96" hidden="1" spans="1:7">
       <c r="A96" s="7" t="s">
         <v>290</v>
       </c>
@@ -5629,7 +5670,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="97" ht="55" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" s="7" t="s">
         <v>292</v>
       </c>
@@ -5652,7 +5693,7 @@
         <v>38.949</v>
       </c>
     </row>
-    <row r="98" ht="28" spans="1:7">
+    <row r="98" hidden="1" spans="1:7">
       <c r="A98" s="7" t="s">
         <v>295</v>
       </c>
@@ -5675,7 +5716,7 @@
         <v>14.787</v>
       </c>
     </row>
-    <row r="99" ht="41" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" s="7" t="s">
         <v>297</v>
       </c>
@@ -5698,7 +5739,7 @@
         <v>7.729</v>
       </c>
     </row>
-    <row r="100" ht="41" spans="1:7">
+    <row r="100" hidden="1" spans="1:7">
       <c r="A100" s="7" t="s">
         <v>300</v>
       </c>
@@ -5721,7 +5762,7 @@
         <v>45.407</v>
       </c>
     </row>
-    <row r="101" ht="28" spans="1:7">
+    <row r="101" hidden="1" spans="1:7">
       <c r="A101" s="7" t="s">
         <v>302</v>
       </c>
@@ -5744,7 +5785,7 @@
         <v>4.441</v>
       </c>
     </row>
-    <row r="102" ht="28" spans="1:7">
+    <row r="102" hidden="1" spans="1:7">
       <c r="A102" s="7" t="s">
         <v>305</v>
       </c>
@@ -5767,7 +5808,7 @@
         <v>4.093</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" hidden="1" spans="1:7">
       <c r="A103" s="7" t="s">
         <v>308</v>
       </c>
@@ -5790,7 +5831,7 @@
         <v>86.084</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" hidden="1" spans="1:7">
       <c r="A104" s="7" t="s">
         <v>310</v>
       </c>
@@ -5813,7 +5854,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="105" ht="55" spans="1:7">
+    <row r="105" hidden="1" spans="1:7">
       <c r="A105" s="7" t="s">
         <v>312</v>
       </c>
@@ -5836,7 +5877,7 @@
         <v>38.422</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" hidden="1" spans="1:7">
       <c r="A106" s="7" t="s">
         <v>314</v>
       </c>
@@ -5859,7 +5900,7 @@
         <v>178.159</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" hidden="1" spans="1:7">
       <c r="A107" s="7" t="s">
         <v>316</v>
       </c>
@@ -5882,7 +5923,7 @@
         <v>5.007</v>
       </c>
     </row>
-    <row r="108" ht="28" spans="1:7">
+    <row r="108" hidden="1" spans="1:7">
       <c r="A108" s="7" t="s">
         <v>319</v>
       </c>
@@ -5905,7 +5946,7 @@
         <v>4.804</v>
       </c>
     </row>
-    <row r="109" ht="28" spans="1:7">
+    <row r="109" hidden="1" spans="1:7">
       <c r="A109" s="7" t="s">
         <v>321</v>
       </c>
@@ -5928,7 +5969,7 @@
         <v>5.535</v>
       </c>
     </row>
-    <row r="110" ht="41" spans="1:7">
+    <row r="110" hidden="1" spans="1:7">
       <c r="A110" s="7" t="s">
         <v>324</v>
       </c>
@@ -5951,7 +5992,7 @@
         <v>13.458</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" hidden="1" spans="1:7">
       <c r="A111" s="7" t="s">
         <v>327</v>
       </c>
@@ -5974,7 +6015,7 @@
         <v>16.692</v>
       </c>
     </row>
-    <row r="112" ht="28" spans="1:7">
+    <row r="112" hidden="1" spans="1:7">
       <c r="A112" s="7" t="s">
         <v>329</v>
       </c>
@@ -5997,7 +6038,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" hidden="1" spans="1:7">
       <c r="A113" s="7" t="s">
         <v>332</v>
       </c>
@@ -6020,7 +6061,7 @@
         <v>9.501</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" hidden="1" spans="1:7">
       <c r="A114" s="7" t="s">
         <v>335</v>
       </c>
@@ -6043,7 +6084,7 @@
         <v>4.165</v>
       </c>
     </row>
-    <row r="115" ht="28" spans="1:7">
+    <row r="115" hidden="1" spans="1:7">
       <c r="A115" s="7" t="s">
         <v>338</v>
       </c>
@@ -6066,7 +6107,7 @@
         <v>13.868</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" hidden="1" spans="1:7">
       <c r="A116" s="7" t="s">
         <v>340</v>
       </c>
@@ -6089,7 +6130,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="117" ht="28" spans="1:7">
+    <row r="117" hidden="1" spans="1:7">
       <c r="A117" s="7" t="s">
         <v>342</v>
       </c>
@@ -6112,7 +6153,7 @@
         <v>6.509</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" hidden="1" spans="1:7">
       <c r="A118" s="7" t="s">
         <v>345</v>
       </c>
@@ -6135,7 +6176,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" hidden="1" spans="1:7">
       <c r="A119" s="7" t="s">
         <v>348</v>
       </c>
@@ -6158,7 +6199,7 @@
         <v>69.484</v>
       </c>
     </row>
-    <row r="120" ht="41" spans="1:7">
+    <row r="120" hidden="1" spans="1:7">
       <c r="A120" s="7" t="s">
         <v>351</v>
       </c>
@@ -6181,7 +6222,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" hidden="1" spans="1:7">
       <c r="A121" s="7" t="s">
         <v>354</v>
       </c>
@@ -6204,7 +6245,7 @@
         <v>22.209</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" hidden="1" spans="1:7">
       <c r="A122" s="7" t="s">
         <v>356</v>
       </c>
@@ -6227,7 +6268,7 @@
         <v>66.322</v>
       </c>
     </row>
-    <row r="123" ht="28" spans="1:7">
+    <row r="123" hidden="1" spans="1:7">
       <c r="A123" s="7" t="s">
         <v>359</v>
       </c>
@@ -6250,7 +6291,7 @@
         <v>5.396</v>
       </c>
     </row>
-    <row r="124" ht="28" spans="1:7">
+    <row r="124" hidden="1" spans="1:7">
       <c r="A124" s="7" t="s">
         <v>361</v>
       </c>
@@ -6273,7 +6314,7 @@
         <v>2.075</v>
       </c>
     </row>
-    <row r="125" ht="41" spans="1:7">
+    <row r="125" hidden="1" spans="1:7">
       <c r="A125" s="7" t="s">
         <v>364</v>
       </c>
@@ -6296,7 +6337,7 @@
         <v>7.235</v>
       </c>
     </row>
-    <row r="126" ht="41" spans="1:7">
+    <row r="126" hidden="1" spans="1:7">
       <c r="A126" s="7" t="s">
         <v>366</v>
       </c>
@@ -6319,7 +6360,7 @@
         <v>11.288</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="7" t="s">
         <v>368</v>
       </c>
@@ -6342,7 +6383,7 @@
         <v>7.998</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" hidden="1" spans="1:7">
       <c r="A128" s="7" t="s">
         <v>371</v>
       </c>
@@ -6365,7 +6406,7 @@
         <v>10.131</v>
       </c>
     </row>
-    <row r="129" ht="41" spans="1:7">
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="7" t="s">
         <v>373</v>
       </c>
@@ -6388,7 +6429,7 @@
         <v>5.192</v>
       </c>
     </row>
-    <row r="130" ht="41" spans="1:7">
+    <row r="130" hidden="1" spans="1:7">
       <c r="A130" s="7" t="s">
         <v>376</v>
       </c>
@@ -6411,7 +6452,7 @@
         <v>58.588</v>
       </c>
     </row>
-    <row r="131" ht="28" spans="1:7">
+    <row r="131" hidden="1" spans="1:7">
       <c r="A131" s="7" t="s">
         <v>378</v>
       </c>
@@ -6434,7 +6475,7 @@
         <v>16.071</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" hidden="1" spans="1:7">
       <c r="A132" s="7" t="s">
         <v>380</v>
       </c>
@@ -6461,7 +6502,7 @@
       <c r="A133" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B133" s="25" t="s">
+      <c r="B133" s="20" t="s">
         <v>383</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -6480,7 +6521,7 @@
         <v>14.377</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" hidden="1" spans="1:7">
       <c r="A134" s="7" t="s">
         <v>384</v>
       </c>
@@ -6507,7 +6548,7 @@
       <c r="A135" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B135" s="20" t="s">
         <v>388</v>
       </c>
       <c r="C135" s="7" t="s">
@@ -6546,7 +6587,7 @@
         <f>(I135-J135)/J135</f>
         <v>0.914706237181807</v>
       </c>
-      <c r="O135" s="26" t="s">
+      <c r="O135" s="21" t="s">
         <v>389</v>
       </c>
       <c r="P135" s="4">
@@ -6564,20 +6605,20 @@
       <c r="T135" s="1">
         <v>124.25</v>
       </c>
-      <c r="AB135" s="27">
+      <c r="AB135" s="22">
         <f>(I135-P135)/I135</f>
         <v>0.475962447230798</v>
       </c>
-      <c r="AC135" s="28">
+      <c r="AC135" s="23">
         <f>(Q135-R135)/Q135</f>
         <v>0.216615425745221</v>
       </c>
-      <c r="AD135" s="28">
+      <c r="AD135" s="23">
         <f>(S135-T135)/S135</f>
         <v>0.177152317880795</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" hidden="1" spans="1:7">
       <c r="A136" s="7" t="s">
         <v>390</v>
       </c>
@@ -6600,7 +6641,7 @@
         <v>7.811</v>
       </c>
     </row>
-    <row r="137" ht="41" spans="1:7">
+    <row r="137" hidden="1" spans="1:7">
       <c r="A137" s="7" t="s">
         <v>393</v>
       </c>
@@ -6623,7 +6664,7 @@
         <v>3.557</v>
       </c>
     </row>
-    <row r="138" ht="28" spans="1:7">
+    <row r="138" hidden="1" spans="1:7">
       <c r="A138" s="7" t="s">
         <v>395</v>
       </c>
@@ -6646,7 +6687,7 @@
         <v>21.337</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" hidden="1" spans="1:7">
       <c r="A139" s="7" t="s">
         <v>397</v>
       </c>
@@ -6669,7 +6710,7 @@
         <v>52.055</v>
       </c>
     </row>
-    <row r="140" ht="28" spans="1:7">
+    <row r="140" hidden="1" spans="1:7">
       <c r="A140" s="7" t="s">
         <v>399</v>
       </c>
@@ -6692,7 +6733,7 @@
         <v>31.623</v>
       </c>
     </row>
-    <row r="141" ht="41" spans="1:7">
+    <row r="141" hidden="1" spans="1:7">
       <c r="A141" s="7" t="s">
         <v>402</v>
       </c>
@@ -6715,7 +6756,7 @@
         <v>86.01</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" hidden="1" spans="1:7">
       <c r="A142" s="7" t="s">
         <v>404</v>
       </c>
@@ -6738,7 +6779,7 @@
         <v>6.219</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" hidden="1" spans="1:7">
       <c r="A143" s="7" t="s">
         <v>406</v>
       </c>
@@ -6761,7 +6802,7 @@
         <v>14.705</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="7" t="s">
         <v>408</v>
       </c>
@@ -6784,7 +6825,7 @@
         <v>45.81</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" hidden="1" spans="1:7">
       <c r="A145" s="7" t="s">
         <v>410</v>
       </c>
@@ -6807,7 +6848,7 @@
         <v>7.031</v>
       </c>
     </row>
-    <row r="146" ht="28" spans="1:7">
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="7" t="s">
         <v>412</v>
       </c>
@@ -6830,7 +6871,7 @@
         <v>5.601</v>
       </c>
     </row>
-    <row r="147" ht="55" spans="1:7">
+    <row r="147" hidden="1" spans="1:7">
       <c r="A147" s="7" t="s">
         <v>414</v>
       </c>
@@ -6853,7 +6894,7 @@
         <v>18.968</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" hidden="1" spans="1:7">
       <c r="A148" s="7" t="s">
         <v>416</v>
       </c>
@@ -6876,7 +6917,7 @@
         <v>28.198</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" hidden="1" spans="1:7">
       <c r="A149" s="7" t="s">
         <v>418</v>
       </c>
@@ -6899,7 +6940,7 @@
         <v>77.438</v>
       </c>
     </row>
-    <row r="150" ht="41" spans="1:7">
+    <row r="150" hidden="1" spans="1:7">
       <c r="A150" s="7" t="s">
         <v>421</v>
       </c>
@@ -6922,7 +6963,7 @@
         <v>26.154</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" hidden="1" spans="1:7">
       <c r="A151" s="7" t="s">
         <v>423</v>
       </c>
@@ -6945,7 +6986,7 @@
         <v>14.729</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="7" t="s">
         <v>425</v>
       </c>
@@ -6968,7 +7009,7 @@
         <v>47.112</v>
       </c>
     </row>
-    <row r="153" ht="41" spans="1:7">
+    <row r="153" hidden="1" spans="1:7">
       <c r="A153" s="7" t="s">
         <v>427</v>
       </c>
@@ -6991,7 +7032,7 @@
         <v>26.226</v>
       </c>
     </row>
-    <row r="154" ht="68" spans="1:7">
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="7" t="s">
         <v>430</v>
       </c>
@@ -7014,7 +7055,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="7" t="s">
         <v>433</v>
       </c>
@@ -7037,7 +7078,7 @@
         <v>16.599</v>
       </c>
     </row>
-    <row r="156" ht="28" spans="1:7">
+    <row r="156" hidden="1" spans="1:7">
       <c r="A156" s="7" t="s">
         <v>435</v>
       </c>
@@ -7060,7 +7101,7 @@
         <v>6.271</v>
       </c>
     </row>
-    <row r="157" ht="28" spans="1:7">
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="7" t="s">
         <v>438</v>
       </c>
@@ -7083,7 +7124,7 @@
         <v>16.272</v>
       </c>
     </row>
-    <row r="158" ht="41" spans="1:7">
+    <row r="158" hidden="1" spans="1:7">
       <c r="A158" s="7" t="s">
         <v>440</v>
       </c>
@@ -7106,7 +7147,7 @@
         <v>11.552</v>
       </c>
     </row>
-    <row r="159" ht="41" spans="1:7">
+    <row r="159" hidden="1" spans="1:7">
       <c r="A159" s="7" t="s">
         <v>442</v>
       </c>
@@ -7129,7 +7170,7 @@
         <v>8.404</v>
       </c>
     </row>
-    <row r="160" ht="28" spans="1:7">
+    <row r="160" hidden="1" spans="1:7">
       <c r="A160" s="7" t="s">
         <v>444</v>
       </c>
@@ -7152,7 +7193,7 @@
         <v>4.968</v>
       </c>
     </row>
-    <row r="161" ht="41" spans="1:7">
+    <row r="161" hidden="1" spans="1:7">
       <c r="A161" s="7" t="s">
         <v>446</v>
       </c>
@@ -7175,7 +7216,7 @@
         <v>13.583</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" hidden="1" spans="1:7">
       <c r="A162" s="7" t="s">
         <v>449</v>
       </c>
@@ -7198,7 +7239,7 @@
         <v>12.841</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="7" t="s">
         <v>452</v>
       </c>
@@ -7221,7 +7262,7 @@
         <v>28.898</v>
       </c>
     </row>
-    <row r="164" ht="41" spans="1:7">
+    <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="7" t="s">
         <v>454</v>
       </c>
@@ -7244,7 +7285,7 @@
         <v>31.936</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="7" t="s">
         <v>456</v>
       </c>
@@ -7267,7 +7308,7 @@
         <v>6.397</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="7" t="s">
         <v>458</v>
       </c>
@@ -7294,7 +7335,7 @@
       <c r="A167" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="B167" s="20" t="s">
         <v>461</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -7313,7 +7354,7 @@
         <v>6.452</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="7" t="s">
         <v>462</v>
       </c>
@@ -7336,7 +7377,7 @@
         <v>3.435</v>
       </c>
     </row>
-    <row r="169" ht="55" spans="1:7">
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="7" t="s">
         <v>465</v>
       </c>
@@ -7359,7 +7400,7 @@
         <v>9.937</v>
       </c>
     </row>
-    <row r="170" ht="28" spans="1:7">
+    <row r="170" hidden="1" spans="1:7">
       <c r="A170" s="7" t="s">
         <v>467</v>
       </c>
@@ -7382,7 +7423,7 @@
         <v>4.792</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="7" t="s">
         <v>469</v>
       </c>
@@ -7405,7 +7446,7 @@
         <v>28.297</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="7" t="s">
         <v>471</v>
       </c>
@@ -7428,7 +7469,7 @@
         <v>5.059</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" hidden="1" spans="1:7">
       <c r="A173" s="7" t="s">
         <v>473</v>
       </c>
@@ -7451,7 +7492,7 @@
         <v>37.942</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="7" t="s">
         <v>475</v>
       </c>
@@ -7474,7 +7515,7 @@
         <v>19.805</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" hidden="1" spans="1:7">
       <c r="A175" s="7" t="s">
         <v>477</v>
       </c>
@@ -7497,7 +7538,7 @@
         <v>76.248</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" hidden="1" spans="1:7">
       <c r="A176" s="7" t="s">
         <v>479</v>
       </c>
@@ -7520,7 +7561,7 @@
         <v>17.307</v>
       </c>
     </row>
-    <row r="177" ht="41" spans="1:7">
+    <row r="177" hidden="1" spans="1:7">
       <c r="A177" s="7" t="s">
         <v>481</v>
       </c>
@@ -7543,7 +7584,7 @@
         <v>7.685</v>
       </c>
     </row>
-    <row r="178" ht="28" spans="1:7">
+    <row r="178" hidden="1" spans="1:7">
       <c r="A178" s="7" t="s">
         <v>484</v>
       </c>
@@ -7566,7 +7607,7 @@
         <v>6.326</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" hidden="1" spans="1:7">
       <c r="A179" s="7" t="s">
         <v>486</v>
       </c>
@@ -7589,7 +7630,7 @@
         <v>2.991</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" hidden="1" spans="1:7">
       <c r="A180" s="7" t="s">
         <v>488</v>
       </c>
@@ -7612,7 +7653,7 @@
         <v>47.18</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" hidden="1" spans="1:7">
       <c r="A181" s="7" t="s">
         <v>490</v>
       </c>
@@ -7635,7 +7676,7 @@
         <v>10.384</v>
       </c>
     </row>
-    <row r="182" ht="41" spans="1:7">
+    <row r="182" hidden="1" spans="1:7">
       <c r="A182" s="7" t="s">
         <v>492</v>
       </c>
@@ -7658,7 +7699,7 @@
         <v>10.476</v>
       </c>
     </row>
-    <row r="183" ht="28" spans="1:7">
+    <row r="183" hidden="1" spans="1:7">
       <c r="A183" s="7" t="s">
         <v>495</v>
       </c>
@@ -7681,7 +7722,7 @@
         <v>10.215</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" hidden="1" spans="1:7">
       <c r="A184" s="7" t="s">
         <v>497</v>
       </c>
@@ -7704,7 +7745,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="185" ht="28" spans="1:7">
+    <row r="185" hidden="1" spans="1:7">
       <c r="A185" s="7" t="s">
         <v>500</v>
       </c>
@@ -7727,7 +7768,7 @@
         <v>7.227</v>
       </c>
     </row>
-    <row r="186" ht="28" spans="1:7">
+    <row r="186" hidden="1" spans="1:7">
       <c r="A186" s="7" t="s">
         <v>503</v>
       </c>
@@ -7750,7 +7791,7 @@
         <v>5.652</v>
       </c>
     </row>
-    <row r="187" ht="28" spans="1:7">
+    <row r="187" hidden="1" spans="1:7">
       <c r="A187" s="7" t="s">
         <v>506</v>
       </c>
@@ -7773,7 +7814,7 @@
         <v>43.801</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" hidden="1" spans="1:7">
       <c r="A188" s="7" t="s">
         <v>508</v>
       </c>
@@ -7796,7 +7837,7 @@
         <v>34.241</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" hidden="1" spans="1:7">
       <c r="A189" s="7" t="s">
         <v>511</v>
       </c>
@@ -7819,7 +7860,7 @@
         <v>22.243</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="7" t="s">
         <v>513</v>
       </c>
@@ -7842,7 +7883,7 @@
         <v>13.627</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" hidden="1" spans="1:7">
       <c r="A191" s="7" t="s">
         <v>515</v>
       </c>
@@ -7865,7 +7906,7 @@
         <v>11.071</v>
       </c>
     </row>
-    <row r="192" ht="41" spans="1:7">
+    <row r="192" hidden="1" spans="1:7">
       <c r="A192" s="7" t="s">
         <v>517</v>
       </c>
@@ -7888,7 +7929,7 @@
         <v>8.471</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" hidden="1" spans="1:7">
       <c r="A193" s="7" t="s">
         <v>520</v>
       </c>
@@ -7911,7 +7952,7 @@
         <v>2.028</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" hidden="1" spans="1:7">
       <c r="A194" s="7" t="s">
         <v>522</v>
       </c>
@@ -7934,7 +7975,7 @@
         <v>47.879</v>
       </c>
     </row>
-    <row r="195" ht="41" spans="1:7">
+    <row r="195" hidden="1" spans="1:7">
       <c r="A195" s="7" t="s">
         <v>524</v>
       </c>
@@ -7957,7 +7998,7 @@
         <v>13.612</v>
       </c>
     </row>
-    <row r="196" ht="28" spans="1:7">
+    <row r="196" hidden="1" spans="1:7">
       <c r="A196" s="7" t="s">
         <v>526</v>
       </c>
@@ -7980,7 +8021,7 @@
         <v>3.004</v>
       </c>
     </row>
-    <row r="197" ht="28" spans="1:7">
+    <row r="197" hidden="1" spans="1:7">
       <c r="A197" s="7" t="s">
         <v>528</v>
       </c>
@@ -8003,7 +8044,7 @@
         <v>138.992</v>
       </c>
     </row>
-    <row r="198" ht="28" spans="1:7">
+    <row r="198" hidden="1" spans="1:7">
       <c r="A198" s="7" t="s">
         <v>530</v>
       </c>
@@ -8026,7 +8067,7 @@
         <v>3.749</v>
       </c>
     </row>
-    <row r="199" ht="28" spans="1:7">
+    <row r="199" hidden="1" spans="1:7">
       <c r="A199" s="7" t="s">
         <v>532</v>
       </c>
@@ -8049,7 +8090,7 @@
         <v>3.581</v>
       </c>
     </row>
-    <row r="200" ht="28" spans="1:7">
+    <row r="200" hidden="1" spans="1:7">
       <c r="A200" s="7" t="s">
         <v>534</v>
       </c>
@@ -8072,7 +8113,7 @@
         <v>68.232</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" hidden="1" spans="1:7">
       <c r="A201" s="7" t="s">
         <v>537</v>
       </c>
@@ -8095,7 +8136,7 @@
         <v>3.968</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" hidden="1" spans="1:7">
       <c r="A202" s="7" t="s">
         <v>539</v>
       </c>
@@ -8118,7 +8159,7 @@
         <v>5.807</v>
       </c>
     </row>
-    <row r="203" ht="28" spans="1:7">
+    <row r="203" hidden="1" spans="1:7">
       <c r="A203" s="7" t="s">
         <v>541</v>
       </c>
@@ -8141,7 +8182,7 @@
         <v>18.504</v>
       </c>
     </row>
-    <row r="204" ht="41" spans="1:7">
+    <row r="204" hidden="1" spans="1:7">
       <c r="A204" s="7" t="s">
         <v>543</v>
       </c>
@@ -8164,7 +8205,7 @@
         <v>8.939</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" hidden="1" spans="1:7">
       <c r="A205" s="7" t="s">
         <v>545</v>
       </c>
@@ -8187,7 +8228,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" hidden="1" spans="1:7">
       <c r="A206" s="7" t="s">
         <v>547</v>
       </c>
@@ -8210,7 +8251,7 @@
         <v>12.926</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" hidden="1" spans="1:7">
       <c r="A207" s="7" t="s">
         <v>550</v>
       </c>
@@ -8233,7 +8274,7 @@
         <v>32.599</v>
       </c>
     </row>
-    <row r="208" ht="28" spans="1:7">
+    <row r="208" hidden="1" spans="1:7">
       <c r="A208" s="7" t="s">
         <v>552</v>
       </c>
@@ -8256,7 +8297,7 @@
         <v>18.566</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" hidden="1" spans="1:7">
       <c r="A209" s="7" t="s">
         <v>554</v>
       </c>
@@ -8279,7 +8320,7 @@
         <v>10.313</v>
       </c>
     </row>
-    <row r="210" ht="41" spans="1:7">
+    <row r="210" hidden="1" spans="1:7">
       <c r="A210" s="7" t="s">
         <v>556</v>
       </c>
@@ -8302,7 +8343,7 @@
         <v>8.459</v>
       </c>
     </row>
-    <row r="211" ht="41" spans="1:7">
+    <row r="211" hidden="1" spans="1:7">
       <c r="A211" s="7" t="s">
         <v>559</v>
       </c>
@@ -8325,7 +8366,7 @@
         <v>3.467</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" hidden="1" spans="1:7">
       <c r="A212" s="7" t="s">
         <v>561</v>
       </c>
@@ -8348,7 +8389,7 @@
         <v>6.337</v>
       </c>
     </row>
-    <row r="213" ht="41" spans="1:7">
+    <row r="213" hidden="1" spans="1:7">
       <c r="A213" s="7" t="s">
         <v>563</v>
       </c>
@@ -8371,7 +8412,7 @@
         <v>37.561</v>
       </c>
     </row>
-    <row r="214" ht="28" spans="1:7">
+    <row r="214" hidden="1" spans="1:7">
       <c r="A214" s="7" t="s">
         <v>565</v>
       </c>
@@ -8394,7 +8435,7 @@
         <v>30.595</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" hidden="1" spans="1:7">
       <c r="A215" s="7" t="s">
         <v>567</v>
       </c>
@@ -8417,7 +8458,7 @@
         <v>15.955</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" hidden="1" spans="1:7">
       <c r="A216" s="7" t="s">
         <v>569</v>
       </c>
@@ -8440,7 +8481,7 @@
         <v>8.179</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" hidden="1" spans="1:7">
       <c r="A217" s="7" t="s">
         <v>571</v>
       </c>
@@ -8463,7 +8504,7 @@
         <v>3.337</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" hidden="1" spans="1:7">
       <c r="A218" s="7" t="s">
         <v>573</v>
       </c>
@@ -8486,7 +8527,7 @@
         <v>10.176</v>
       </c>
     </row>
-    <row r="219" ht="28" spans="1:7">
+    <row r="219" hidden="1" spans="1:7">
       <c r="A219" s="7" t="s">
         <v>576</v>
       </c>
@@ -8509,7 +8550,7 @@
         <v>3.035</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" hidden="1" spans="1:7">
       <c r="A220" s="7" t="s">
         <v>578</v>
       </c>
@@ -8532,7 +8573,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="221" ht="28" spans="1:7">
+    <row r="221" hidden="1" spans="1:7">
       <c r="A221" s="7" t="s">
         <v>580</v>
       </c>
@@ -8555,7 +8596,7 @@
         <v>19.362</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" hidden="1" spans="1:7">
       <c r="A222" s="7" t="s">
         <v>582</v>
       </c>
@@ -8582,7 +8623,7 @@
       <c r="A223" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B223" s="25" t="s">
+      <c r="B223" s="20" t="s">
         <v>585</v>
       </c>
       <c r="C223" s="7" t="s">
@@ -8601,7 +8642,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" hidden="1" spans="1:7">
       <c r="A224" s="7" t="s">
         <v>586</v>
       </c>
@@ -8624,7 +8665,7 @@
         <v>4.386</v>
       </c>
     </row>
-    <row r="225" ht="28" spans="1:7">
+    <row r="225" hidden="1" spans="1:7">
       <c r="A225" s="7" t="s">
         <v>588</v>
       </c>
@@ -8647,7 +8688,7 @@
         <v>28.134</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" hidden="1" spans="1:7">
       <c r="A226" s="7" t="s">
         <v>590</v>
       </c>
@@ -8670,7 +8711,7 @@
         <v>65.824</v>
       </c>
     </row>
-    <row r="227" ht="28" spans="1:7">
+    <row r="227" hidden="1" spans="1:7">
       <c r="A227" s="7" t="s">
         <v>592</v>
       </c>
@@ -8693,7 +8734,7 @@
         <v>4.923</v>
       </c>
     </row>
-    <row r="228" ht="28" spans="1:7">
+    <row r="228" hidden="1" spans="1:7">
       <c r="A228" s="7" t="s">
         <v>594</v>
       </c>
@@ -8716,7 +8757,7 @@
         <v>9.906</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" hidden="1" spans="1:7">
       <c r="A229" s="7" t="s">
         <v>596</v>
       </c>
@@ -8739,7 +8780,7 @@
         <v>5.667</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" hidden="1" spans="1:7">
       <c r="A230" s="7" t="s">
         <v>599</v>
       </c>
@@ -8762,7 +8803,7 @@
         <v>3.961</v>
       </c>
     </row>
-    <row r="231" ht="28" spans="1:7">
+    <row r="231" hidden="1" spans="1:7">
       <c r="A231" s="7" t="s">
         <v>601</v>
       </c>
@@ -8785,7 +8826,7 @@
         <v>7.662</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" hidden="1" spans="1:7">
       <c r="A232" s="7" t="s">
         <v>603</v>
       </c>
@@ -8808,7 +8849,7 @@
         <v>18.193</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" hidden="1" spans="1:7">
       <c r="A233" s="7" t="s">
         <v>605</v>
       </c>
@@ -8831,7 +8872,7 @@
         <v>47.141</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" hidden="1" spans="1:7">
       <c r="A234" s="7" t="s">
         <v>607</v>
       </c>
@@ -8854,7 +8895,7 @@
         <v>10.498</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" hidden="1" spans="1:7">
       <c r="A235" s="7" t="s">
         <v>609</v>
       </c>
@@ -8878,6 +8919,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B235">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="P1:AH1"/>
@@ -8908,7 +8954,7 @@
     <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 B4:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
